--- a/ForuGate/src/datafile/ThyroidMenuList.xlsx
+++ b/ForuGate/src/datafile/ThyroidMenuList.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId2"/>
@@ -40,13 +40,19 @@
   <si>
     <t xml:space="preserve">------------------------------    
     Detect any nodules   
-    [  1  ] None  [  2  ] Single nodule   [  3  ] Multinodular Goiter </t>
+    [  1  ] None
+    [  2  ] Single nodule
+    [  3  ] Multinodular Goiter </t>
   </si>
   <si>
     <t xml:space="preserve">-------------------------------
     thyroid gland for consistency   
-    [  1  ] Soft    [  2  ] Soft to Firm  [  3  ] Firm   
-    [  4  ] Cobble-stone  [  5  ] Firm to hard  [  6  ] Hard </t>
+    [  1  ] Soft
+    [  2  ] Soft to Firm  
+    [  3  ] Firm   
+    [  4  ] Cobble-stone
+    [  5  ] Firm to hard  
+    [  6  ] Hard </t>
   </si>
   <si>
     <t xml:space="preserve">-------------------------------
@@ -71,12 +77,20 @@
     <t xml:space="preserve">-------------------------------
     Exophthalmos   
     Class 0 : No signs or symptoms  
-    Class 1 : Only signs (limited to upper lid retraction and stare, with or without lid lag)  
-    Class 2 : Soft tissue involvement (oedema of conjunctivae and lids, conjunctival injection, etc.)  
+    Class 1 : Only signs 
+               (limited to upper lid 
+                  retraction and stare, 
+                 with or without lid lag)  
+   Class 2 : Soft tissue involvement 
+               (oedema of conjunctivae and lids, 
+                 conjunctival injection, etc.)  
     Class 3 : Proptosis  
-    Class 4 : Extraocular muscle involvement (usually with diplopia)  
-    Class 5 : Corneal involvement (primarily due to lagophthalmos)  
-    Class 6 : Sight loss (due to optic nerve involvement)</t>
+   Class 4 : Extraocular muscle involvement 
+               (usually with diplopia)  
+   Class 5 : Corneal involvement 
+                (primarily due to lagophthalmos)  
+   Class 6 : Sight loss 
+               (due to optic nerve involvement)</t>
   </si>
   <si>
     <t xml:space="preserve">Goiter ruled out / in :</t>
@@ -353,11 +367,11 @@
   </sheetPr>
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="46.55078125" defaultRowHeight="135.05" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="46.51171875" defaultRowHeight="135.05" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="73.59"/>
   </cols>
@@ -436,11 +450,11 @@
   </sheetPr>
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="34.109375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="34.0859375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.58"/>
@@ -594,7 +608,7 @@
       <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4609375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="81.44"/>
   </cols>

--- a/ForuGate/src/datafile/ThyroidMenuList.xlsx
+++ b/ForuGate/src/datafile/ThyroidMenuList.xlsx
@@ -62,34 +62,32 @@
   <si>
     <t xml:space="preserve">------------------------------- 
     Systolic or continuous Bruit (y/n) 
-        [ 1 ]   yes        [  2 ]  no 
-            </t>
+        [ 1 ]   yes
+        [ 2 ]  no 
+            A1:AMJ1</t>
   </si>
   <si>
     <t xml:space="preserve">-------------------------------
     DTR deep tendon reflex  In general, the grades are as follows:
-                1+ = present but depressed   
-                2+ = normal / average   
-                3+ = increased   
-                4+ = clonus</t>
+        1+ = present but depressed   
+        2+ = normal / average   
+        3+ = increased   
+        4+ = clonus</t>
   </si>
   <si>
     <t xml:space="preserve">-------------------------------
     Exophthalmos   
     Class 0 : No signs or symptoms  
     Class 1 : Only signs 
-               (limited to upper lid 
-                  retraction and stare, 
-                 with or without lid lag)  
-   Class 2 : Soft tissue involvement 
-               (oedema of conjunctivae and lids, 
-                 conjunctival injection, etc.)  
+               (limited to upper lid retraction and stare, with or without lid lag)  
+    Class 2 : Soft tissue involvement 
+               (oedema of conjunctivae and lids, conjunctival injection, etc.)  
     Class 3 : Proptosis  
-   Class 4 : Extraocular muscle involvement 
+    Class 4 : Extraocular muscle involvement 
                (usually with diplopia)  
-   Class 5 : Corneal involvement 
-                (primarily due to lagophthalmos)  
-   Class 6 : Sight loss 
+    Class 5 : Corneal involvement 
+                (primarily due to lagophthalmos) 
+    Class 6 : Sight loss 
                (due to optic nerve involvement)</t>
   </si>
   <si>
@@ -367,11 +365,11 @@
   </sheetPr>
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A8" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="46.51171875" defaultRowHeight="135.05" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="46.3046875" defaultRowHeight="135.05" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="73.59"/>
   </cols>
@@ -454,7 +452,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="34.0859375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="33.9375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.58"/>
@@ -608,7 +606,7 @@
       <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.41015625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="81.44"/>
   </cols>
